--- a/protocol_format.xlsx
+++ b/protocol_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pijon\OneDrive\デスクトップ\U22\WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB37F46-3F4F-4324-957E-DABC89BAE050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E43E2-806C-417C-B3AA-D36D7DEBFD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="12015" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocolフォーマット" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間指定</t>
-    <rPh sb="0" eb="4">
-      <t>ジカンシテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -92,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IPver</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -112,6 +101,35 @@
     <rPh sb="0" eb="2">
       <t>カクチョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標解決リクエストパケット</t>
+    <rPh sb="0" eb="4">
+      <t>ザヒョウカイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標解決レスポンスパケット</t>
+    <rPh sb="0" eb="4">
+      <t>ザヒョウカイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域コード</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックサム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -173,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -298,20 +316,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,9 +377,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,29 +406,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -646,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="B4" sqref="B4:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -657,19 +704,30 @@
     <col min="2" max="33" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="58.5">
-      <c r="B1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+    <row r="1" spans="1:68" ht="58.5">
+      <c r="B1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="AK1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
     </row>
-    <row r="2" spans="1:33" ht="39.75">
+    <row r="2" spans="1:68" ht="39.75">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -766,334 +824,621 @@
       <c r="AG2" s="1">
         <v>31</v>
       </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>15</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>17</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>18</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>19</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>20</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>21</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>22</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>23</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>24</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>29</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="2" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="2" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="2" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="23"/>
+      <c r="AK3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="4"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM3" s="22"/>
+      <c r="BN3" s="22"/>
+      <c r="BO3" s="22"/>
+      <c r="BP3" s="23"/>
     </row>
-    <row r="4" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="11"/>
+      <c r="AK4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="11"/>
     </row>
-    <row r="5" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
+      <c r="BP5" s="14"/>
     </row>
-    <row r="6" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="7"/>
+      <c r="B6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AK6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
+      <c r="BL6" s="28"/>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="28"/>
     </row>
-    <row r="7" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="10"/>
+      <c r="AK7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="11"/>
     </row>
-    <row r="8" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="7"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="14"/>
     </row>
-    <row r="9" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="17"/>
+      <c r="AK9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="10"/>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="10"/>
+      <c r="BM9" s="10"/>
+      <c r="BN9" s="10"/>
+      <c r="BO9" s="10"/>
+      <c r="BP9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="22.5" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
+    <row r="10" spans="1:68" ht="39.950000000000003" customHeight="1">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="14"/>
     </row>
-    <row r="15" spans="1:33" ht="58.5">
-      <c r="B15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+    <row r="11" spans="1:68" ht="39.75" customHeight="1"/>
+    <row r="15" spans="1:68" ht="58.5">
+      <c r="B15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="AK15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
     </row>
-    <row r="16" spans="1:33" ht="39.75">
+    <row r="16" spans="1:68" ht="39.75">
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -1190,471 +1535,903 @@
       <c r="AG16" s="1">
         <v>31</v>
       </c>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>7</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>11</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>15</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>17</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>18</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>19</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>20</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>21</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>22</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>23</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>24</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>29</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="2" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="2" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="17"/>
+      <c r="T17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="2" t="s">
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="23"/>
+      <c r="AK17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="4"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="23"/>
+      <c r="BL17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM17" s="22"/>
+      <c r="BN17" s="22"/>
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="23"/>
     </row>
-    <row r="18" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="7"/>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="11"/>
+      <c r="AK18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
+      <c r="BP18" s="11"/>
     </row>
-    <row r="19" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="24"/>
+      <c r="BJ19" s="24"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="24"/>
+      <c r="BO19" s="24"/>
+      <c r="BP19" s="21"/>
     </row>
-    <row r="20" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="7"/>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AK20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="28"/>
+      <c r="BL20" s="28"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="28"/>
+      <c r="BO20" s="28"/>
+      <c r="BP20" s="28"/>
     </row>
-    <row r="21" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="10"/>
+      <c r="B21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="17"/>
+      <c r="AK21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+      <c r="BK21" s="10"/>
+      <c r="BL21" s="10"/>
+      <c r="BM21" s="10"/>
+      <c r="BN21" s="10"/>
+      <c r="BO21" s="10"/>
+      <c r="BP21" s="11"/>
     </row>
-    <row r="22" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="5"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="13"/>
+      <c r="BM22" s="13"/>
+      <c r="BN22" s="13"/>
+      <c r="BO22" s="13"/>
+      <c r="BP22" s="14"/>
     </row>
-    <row r="23" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="8"/>
+      <c r="AK23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10"/>
+      <c r="BL23" s="10"/>
+      <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
+      <c r="BO23" s="10"/>
+      <c r="BP23" s="11"/>
     </row>
-    <row r="24" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="4"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="14"/>
     </row>
-    <row r="25" spans="1:33" ht="39.75">
+    <row r="25" spans="1:68" ht="39.75">
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="20"/>
+      <c r="B25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="25"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="25"/>
+      <c r="BO25" s="25"/>
+      <c r="BP25" s="8"/>
     </row>
-    <row r="26" spans="1:33" ht="39.75">
+    <row r="26" spans="1:68" ht="39.75">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="23"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="25"/>
+      <c r="BF26" s="25"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="25"/>
+      <c r="BM26" s="25"/>
+      <c r="BN26" s="25"/>
+      <c r="BO26" s="25"/>
+      <c r="BP26" s="8"/>
     </row>
-    <row r="27" spans="1:33" ht="39.75">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
+    <row r="27" spans="1:68" ht="39.75">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="H27" s="26"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+      <c r="AW27" s="27"/>
+      <c r="AX27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="27"/>
+      <c r="BA27" s="27"/>
+      <c r="BB27" s="27"/>
+      <c r="BC27" s="27"/>
+      <c r="BD27" s="27"/>
+      <c r="BE27" s="27"/>
+      <c r="BF27" s="27"/>
+      <c r="BG27" s="27"/>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="27"/>
+      <c r="BJ27" s="27"/>
+      <c r="BK27" s="27"/>
+      <c r="BL27" s="27"/>
+      <c r="BM27" s="27"/>
+      <c r="BN27" s="27"/>
+      <c r="BO27" s="27"/>
+      <c r="BP27" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B25:AG26"/>
-    <mergeCell ref="B20:AG21"/>
-    <mergeCell ref="B22:AG23"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="R24:AB24"/>
-    <mergeCell ref="AC24:AG24"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="B18:AG19"/>
+  <mergeCells count="54">
+    <mergeCell ref="B25:U25"/>
+    <mergeCell ref="V25:AG25"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="R21:AB21"/>
+    <mergeCell ref="AC21:AG21"/>
+    <mergeCell ref="B20:U20"/>
+    <mergeCell ref="V20:AG20"/>
+    <mergeCell ref="AK9:BP10"/>
+    <mergeCell ref="AK20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="AK21:BP22"/>
+    <mergeCell ref="AK25:BP26"/>
+    <mergeCell ref="AK23:BP24"/>
+    <mergeCell ref="BI17:BK17"/>
+    <mergeCell ref="BL17:BP17"/>
+    <mergeCell ref="AK18:BP19"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BC17:BH17"/>
+    <mergeCell ref="AK15:AS15"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="AK4:BP5"/>
+    <mergeCell ref="AK7:BP8"/>
+    <mergeCell ref="AK6:BD6"/>
+    <mergeCell ref="BE6:BP6"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BH3"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R10:AB10"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="AC3:AG3"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:Q17"/>
     <mergeCell ref="R17:S17"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="T3:X3"/>
     <mergeCell ref="B4:AG5"/>
-    <mergeCell ref="B6:AG7"/>
-    <mergeCell ref="B8:AG9"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="R10:AB10"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="V6:AG6"/>
+    <mergeCell ref="B18:AG19"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="B22:AG23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/protocol_format.xlsx
+++ b/protocol_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pijon\OneDrive\デスクトップ\U22\WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E43E2-806C-417C-B3AA-D36D7DEBFD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E90789-BEE2-40BC-A221-B90789AA8E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="12015" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocolフォーマット" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -341,22 +341,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,40 +377,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AG5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="51" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AZ16" sqref="AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -705,27 +705,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="58.5">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="AK1" s="18" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="AK1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:68" ht="39.75">
       <c r="B2" s="1">
@@ -925,94 +925,94 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="15" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="15" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="15" t="s">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="15" t="s">
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="23"/>
-      <c r="AK3" s="15" t="s">
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AK3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="15" t="s">
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="15" t="s">
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="15" t="s">
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="15" t="s">
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="15" t="s">
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BM3" s="22"/>
-      <c r="BN3" s="22"/>
-      <c r="BO3" s="22"/>
-      <c r="BP3" s="23"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="5"/>
     </row>
     <row r="4" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
@@ -1160,78 +1160,78 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AK6" s="15" t="s">
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AK6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="23"/>
-      <c r="BE6" s="28" t="s">
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BF6" s="28"/>
-      <c r="BG6" s="28"/>
-      <c r="BH6" s="28"/>
-      <c r="BI6" s="28"/>
-      <c r="BJ6" s="28"/>
-      <c r="BK6" s="28"/>
-      <c r="BL6" s="28"/>
-      <c r="BM6" s="28"/>
-      <c r="BN6" s="28"/>
-      <c r="BO6" s="28"/>
-      <c r="BP6" s="28"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
     </row>
     <row r="7" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
@@ -1349,38 +1349,38 @@
       <c r="BP9" s="11"/>
     </row>
     <row r="10" spans="1:68" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
@@ -1416,27 +1416,27 @@
     </row>
     <row r="11" spans="1:68" ht="39.75" customHeight="1"/>
     <row r="15" spans="1:68" ht="58.5">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="AK15" s="18" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="AK15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="18"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
     </row>
     <row r="16" spans="1:68" ht="39.75">
       <c r="B16" s="1">
@@ -1636,94 +1636,94 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="15" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="15" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="15" t="s">
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="15" t="s">
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="23"/>
-      <c r="AK17" s="15" t="s">
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="5"/>
+      <c r="AK17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="15" t="s">
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="15" t="s">
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="15" t="s">
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="BD17" s="22"/>
-      <c r="BE17" s="22"/>
-      <c r="BF17" s="22"/>
-      <c r="BG17" s="22"/>
-      <c r="BH17" s="22"/>
-      <c r="BI17" s="15" t="s">
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BJ17" s="22"/>
-      <c r="BK17" s="23"/>
-      <c r="BL17" s="15" t="s">
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BM17" s="22"/>
-      <c r="BN17" s="22"/>
-      <c r="BO17" s="22"/>
-      <c r="BP17" s="23"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="5"/>
     </row>
     <row r="18" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="1">
@@ -1835,157 +1835,157 @@
       <c r="AF19" s="13"/>
       <c r="AG19" s="14"/>
       <c r="AK19" s="20"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="24"/>
-      <c r="BJ19" s="24"/>
-      <c r="BK19" s="24"/>
-      <c r="BL19" s="24"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="24"/>
-      <c r="BO19" s="24"/>
-      <c r="BP19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="22"/>
     </row>
     <row r="20" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="28" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AK20" s="15" t="s">
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AK20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="22"/>
-      <c r="AP20" s="22"/>
-      <c r="AQ20" s="22"/>
-      <c r="AR20" s="22"/>
-      <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="22"/>
-      <c r="AV20" s="22"/>
-      <c r="AW20" s="22"/>
-      <c r="AX20" s="22"/>
-      <c r="AY20" s="22"/>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="22"/>
-      <c r="BB20" s="22"/>
-      <c r="BC20" s="22"/>
-      <c r="BD20" s="23"/>
-      <c r="BE20" s="28" t="s">
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BF20" s="28"/>
-      <c r="BG20" s="28"/>
-      <c r="BH20" s="28"/>
-      <c r="BI20" s="28"/>
-      <c r="BJ20" s="28"/>
-      <c r="BK20" s="28"/>
-      <c r="BL20" s="28"/>
-      <c r="BM20" s="28"/>
-      <c r="BN20" s="28"/>
-      <c r="BO20" s="28"/>
-      <c r="BP20" s="28"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
     </row>
     <row r="21" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="15" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="15" t="s">
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="17"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="8"/>
       <c r="AK21" s="9" t="s">
         <v>3</v>
       </c>
@@ -2025,40 +2025,40 @@
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="5"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="25"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="13"/>
@@ -2096,38 +2096,38 @@
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="8"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="18"/>
       <c r="AK23" s="9" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2167,38 @@
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="AJ24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="13"/>
       <c r="AM24" s="13"/>
@@ -2205,131 +2236,164 @@
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="3" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AK25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="25"/>
-      <c r="BF25" s="25"/>
-      <c r="BG25" s="25"/>
-      <c r="BH25" s="25"/>
-      <c r="BI25" s="25"/>
-      <c r="BJ25" s="25"/>
-      <c r="BK25" s="25"/>
-      <c r="BL25" s="25"/>
-      <c r="BM25" s="25"/>
-      <c r="BN25" s="25"/>
-      <c r="BO25" s="25"/>
-      <c r="BP25" s="8"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="17"/>
+      <c r="BK25" s="17"/>
+      <c r="BL25" s="17"/>
+      <c r="BM25" s="17"/>
+      <c r="BN25" s="17"/>
+      <c r="BO25" s="17"/>
+      <c r="BP25" s="18"/>
     </row>
     <row r="26" spans="1:68" ht="39.75">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
-      <c r="BA26" s="25"/>
-      <c r="BB26" s="25"/>
-      <c r="BC26" s="25"/>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="25"/>
-      <c r="BF26" s="25"/>
-      <c r="BG26" s="25"/>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="25"/>
-      <c r="BJ26" s="25"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="25"/>
-      <c r="BN26" s="25"/>
-      <c r="BO26" s="25"/>
-      <c r="BP26" s="8"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="17"/>
+      <c r="BL26" s="17"/>
+      <c r="BM26" s="17"/>
+      <c r="BN26" s="17"/>
+      <c r="BO26" s="17"/>
+      <c r="BP26" s="18"/>
     </row>
     <row r="27" spans="1:68" ht="39.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="H27" s="26"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -2342,95 +2406,62 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="27"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="27"/>
-      <c r="AQ27" s="27"/>
-      <c r="AR27" s="27"/>
-      <c r="AS27" s="27"/>
-      <c r="AT27" s="27"/>
-      <c r="AU27" s="27"/>
-      <c r="AV27" s="27"/>
-      <c r="AW27" s="27"/>
-      <c r="AX27" s="27"/>
-      <c r="AY27" s="27"/>
-      <c r="AZ27" s="27"/>
-      <c r="BA27" s="27"/>
-      <c r="BB27" s="27"/>
-      <c r="BC27" s="27"/>
-      <c r="BD27" s="27"/>
-      <c r="BE27" s="27"/>
-      <c r="BF27" s="27"/>
-      <c r="BG27" s="27"/>
-      <c r="BH27" s="27"/>
-      <c r="BI27" s="27"/>
-      <c r="BJ27" s="27"/>
-      <c r="BK27" s="27"/>
-      <c r="BL27" s="27"/>
-      <c r="BM27" s="27"/>
-      <c r="BN27" s="27"/>
-      <c r="BO27" s="27"/>
-      <c r="BP27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B25:U25"/>
-    <mergeCell ref="V25:AG25"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="R21:AB21"/>
-    <mergeCell ref="AC21:AG21"/>
-    <mergeCell ref="B20:U20"/>
-    <mergeCell ref="V20:AG20"/>
-    <mergeCell ref="AK9:BP10"/>
-    <mergeCell ref="AK20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="AK21:BP22"/>
-    <mergeCell ref="AK25:BP26"/>
-    <mergeCell ref="AK23:BP24"/>
-    <mergeCell ref="BI17:BK17"/>
-    <mergeCell ref="BL17:BP17"/>
-    <mergeCell ref="AK18:BP19"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="BA17:BB17"/>
-    <mergeCell ref="BC17:BH17"/>
-    <mergeCell ref="AK15:AS15"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:Z17"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="R10:AB10"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B4:AG5"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="V6:AG6"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AK4:BP5"/>
     <mergeCell ref="AK7:BP8"/>
     <mergeCell ref="AK6:BD6"/>
     <mergeCell ref="BE6:BP6"/>
     <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AO3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BH3"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R10:AB10"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BM3:BP3"/>
+    <mergeCell ref="AK21:BP22"/>
+    <mergeCell ref="AK25:BP26"/>
+    <mergeCell ref="AK23:BP24"/>
+    <mergeCell ref="AK18:BP19"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="BA17:BC17"/>
+    <mergeCell ref="BD17:BI17"/>
+    <mergeCell ref="BJ17:BL17"/>
+    <mergeCell ref="BM17:BP17"/>
+    <mergeCell ref="B20:U20"/>
+    <mergeCell ref="V20:AG20"/>
+    <mergeCell ref="AK9:BP10"/>
+    <mergeCell ref="AK20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="AK15:AS15"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="B4:AG5"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="V6:AG6"/>
     <mergeCell ref="B18:AG19"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="B25:U25"/>
+    <mergeCell ref="V25:AG25"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="R21:AB21"/>
+    <mergeCell ref="AC21:AG21"/>
     <mergeCell ref="B22:AG23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/protocol_format.xlsx
+++ b/protocol_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pijon\OneDrive\デスクトップ\U22\WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E90789-BEE2-40BC-A221-B90789AA8E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F943AD-7FC1-4A2E-9296-C77118BB4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocolフォーマット" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,7 +350,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,6 +363,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,13 +382,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -395,22 +400,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="51" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AZ16" sqref="AZ16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -705,27 +698,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="58.5">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="AK1" s="23" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="AK1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
     </row>
     <row r="2" spans="1:68" ht="39.75">
       <c r="B2" s="1">
@@ -928,23 +921,23 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="3" t="s">
         <v>10</v>
       </c>
@@ -972,23 +965,23 @@
       <c r="AK3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="8"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="10"/>
       <c r="AO3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="8"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="10"/>
       <c r="BA3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1018,184 +1011,184 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="11"/>
-      <c r="AK4" s="9" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="14"/>
+      <c r="AK4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="10"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" s="10"/>
-      <c r="BO4" s="10"/>
-      <c r="BP4" s="11"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="14"/>
     </row>
     <row r="5" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="14"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="17"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="17"/>
     </row>
     <row r="6" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
       <c r="AK6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1218,225 +1211,225 @@
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
       <c r="BD6" s="5"/>
-      <c r="BE6" s="6" t="s">
+      <c r="BE6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="6"/>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="6"/>
-      <c r="BO6" s="6"/>
-      <c r="BP6" s="6"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
     </row>
     <row r="7" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AK7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="11"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="13"/>
+      <c r="BO7" s="13"/>
+      <c r="BP7" s="14"/>
     </row>
     <row r="8" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="14"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="17"/>
     </row>
     <row r="9" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AK9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10"/>
-      <c r="BP9" s="11"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="14"/>
     </row>
     <row r="10" spans="1:68" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="13"/>
-      <c r="BD10" s="13"/>
-      <c r="BE10" s="13"/>
-      <c r="BF10" s="13"/>
-      <c r="BG10" s="13"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="13"/>
-      <c r="BK10" s="13"/>
-      <c r="BL10" s="13"/>
-      <c r="BM10" s="13"/>
-      <c r="BN10" s="13"/>
-      <c r="BO10" s="13"/>
-      <c r="BP10" s="14"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="17"/>
     </row>
     <row r="11" spans="1:68" ht="39.75" customHeight="1"/>
     <row r="15" spans="1:68" ht="58.5">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="AK15" s="23" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="AK15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
     </row>
     <row r="16" spans="1:68" ht="39.75">
       <c r="B16" s="1">
@@ -1639,23 +1632,23 @@
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1683,23 +1676,23 @@
       <c r="AK17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="8"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="10"/>
       <c r="AO17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="8"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="10"/>
       <c r="BA17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1729,143 +1722,143 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="11"/>
-      <c r="AK18" s="9" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AK18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="10"/>
-      <c r="BL18" s="10"/>
-      <c r="BM18" s="10"/>
-      <c r="BN18" s="10"/>
-      <c r="BO18" s="10"/>
-      <c r="BP18" s="11"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="13"/>
+      <c r="BP18" s="14"/>
     </row>
     <row r="19" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="14"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="22"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="17"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+      <c r="BI19" s="8"/>
+      <c r="BJ19" s="8"/>
+      <c r="BK19" s="8"/>
+      <c r="BL19" s="8"/>
+      <c r="BM19" s="8"/>
+      <c r="BN19" s="8"/>
+      <c r="BO19" s="8"/>
+      <c r="BP19" s="24"/>
     </row>
     <row r="20" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="1">
@@ -1893,20 +1886,20 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
       <c r="AK20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1929,20 +1922,20 @@
       <c r="BB20" s="4"/>
       <c r="BC20" s="4"/>
       <c r="BD20" s="5"/>
-      <c r="BE20" s="6" t="s">
+      <c r="BE20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
     </row>
     <row r="21" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="1">
@@ -1951,449 +1944,378 @@
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="3" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="8"/>
-      <c r="AK21" s="9" t="s">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="5"/>
+      <c r="AK21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
-      <c r="BG21" s="10"/>
-      <c r="BH21" s="10"/>
-      <c r="BI21" s="10"/>
-      <c r="BJ21" s="10"/>
-      <c r="BK21" s="10"/>
-      <c r="BL21" s="10"/>
-      <c r="BM21" s="10"/>
-      <c r="BN21" s="10"/>
-      <c r="BO21" s="10"/>
-      <c r="BP21" s="11"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13"/>
+      <c r="BL21" s="13"/>
+      <c r="BM21" s="13"/>
+      <c r="BN21" s="13"/>
+      <c r="BO21" s="13"/>
+      <c r="BP21" s="14"/>
     </row>
     <row r="22" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
       <c r="AG22" s="25"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="13"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="13"/>
-      <c r="BK22" s="13"/>
-      <c r="BL22" s="13"/>
-      <c r="BM22" s="13"/>
-      <c r="BN22" s="13"/>
-      <c r="BO22" s="13"/>
-      <c r="BP22" s="14"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="16"/>
+      <c r="BI22" s="16"/>
+      <c r="BJ22" s="16"/>
+      <c r="BK22" s="16"/>
+      <c r="BL22" s="16"/>
+      <c r="BM22" s="16"/>
+      <c r="BN22" s="16"/>
+      <c r="BO22" s="16"/>
+      <c r="BP22" s="17"/>
     </row>
     <row r="23" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="18"/>
-      <c r="AK23" s="9" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="21"/>
+      <c r="AK23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="10"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
-      <c r="BK23" s="10"/>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
-      <c r="BO23" s="10"/>
-      <c r="BP23" s="11"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13"/>
+      <c r="BM23" s="13"/>
+      <c r="BN23" s="13"/>
+      <c r="BO23" s="13"/>
+      <c r="BP23" s="14"/>
     </row>
     <row r="24" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="13"/>
-      <c r="BK24" s="13"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="13"/>
-      <c r="BN24" s="13"/>
-      <c r="BO24" s="13"/>
-      <c r="BP24" s="14"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="16"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="16"/>
+      <c r="BJ24" s="16"/>
+      <c r="BK24" s="16"/>
+      <c r="BL24" s="16"/>
+      <c r="BM24" s="16"/>
+      <c r="BN24" s="16"/>
+      <c r="BO24" s="16"/>
+      <c r="BP24" s="17"/>
     </row>
     <row r="25" spans="1:68" ht="39.75">
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AK25" s="15" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AK25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16"/>
-      <c r="AN25" s="16"/>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="16"/>
-      <c r="AR25" s="16"/>
-      <c r="AS25" s="16"/>
-      <c r="AT25" s="16"/>
-      <c r="AU25" s="16"/>
-      <c r="AV25" s="16"/>
-      <c r="AW25" s="16"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="16"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16"/>
-      <c r="BD25" s="16"/>
-      <c r="BE25" s="17"/>
-      <c r="BF25" s="17"/>
-      <c r="BG25" s="17"/>
-      <c r="BH25" s="17"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="17"/>
-      <c r="BK25" s="17"/>
-      <c r="BL25" s="17"/>
-      <c r="BM25" s="17"/>
-      <c r="BN25" s="17"/>
-      <c r="BO25" s="17"/>
-      <c r="BP25" s="18"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="7"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
+      <c r="BP25" s="21"/>
     </row>
     <row r="26" spans="1:68" ht="39.75">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="17"/>
-      <c r="BH26" s="17"/>
-      <c r="BI26" s="17"/>
-      <c r="BJ26" s="17"/>
-      <c r="BK26" s="17"/>
-      <c r="BL26" s="17"/>
-      <c r="BM26" s="17"/>
-      <c r="BN26" s="17"/>
-      <c r="BO26" s="17"/>
-      <c r="BP26" s="18"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="21"/>
     </row>
     <row r="27" spans="1:68" ht="39.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -2409,42 +2331,12 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:Z17"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="R10:AB10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B4:AG5"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="V6:AG6"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AK4:BP5"/>
-    <mergeCell ref="AK7:BP8"/>
-    <mergeCell ref="AK6:BD6"/>
-    <mergeCell ref="BE6:BP6"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="AO3:AZ3"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BM3:BP3"/>
-    <mergeCell ref="AK21:BP22"/>
-    <mergeCell ref="AK25:BP26"/>
-    <mergeCell ref="AK23:BP24"/>
-    <mergeCell ref="AK18:BP19"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="BA17:BC17"/>
-    <mergeCell ref="BD17:BI17"/>
-    <mergeCell ref="BJ17:BL17"/>
-    <mergeCell ref="BM17:BP17"/>
+    <mergeCell ref="B25:U25"/>
+    <mergeCell ref="V25:AG25"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:AG23"/>
+    <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="Z21:AG21"/>
     <mergeCell ref="B20:U20"/>
     <mergeCell ref="V20:AG20"/>
     <mergeCell ref="AK9:BP10"/>
@@ -2457,12 +2349,42 @@
     <mergeCell ref="B18:AG19"/>
     <mergeCell ref="AA17:AC17"/>
     <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="B25:U25"/>
-    <mergeCell ref="V25:AG25"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="R21:AB21"/>
-    <mergeCell ref="AC21:AG21"/>
-    <mergeCell ref="B22:AG23"/>
+    <mergeCell ref="AK21:BP22"/>
+    <mergeCell ref="AK25:BP26"/>
+    <mergeCell ref="AK23:BP24"/>
+    <mergeCell ref="AK18:BP19"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="BA17:BC17"/>
+    <mergeCell ref="BD17:BI17"/>
+    <mergeCell ref="BJ17:BL17"/>
+    <mergeCell ref="BM17:BP17"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B4:AG5"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="V6:AG6"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="R10:AB10"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:Z17"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AK4:BP5"/>
+    <mergeCell ref="AK7:BP8"/>
+    <mergeCell ref="AK6:BD6"/>
+    <mergeCell ref="BE6:BP6"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO3:AZ3"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BM3:BP3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/protocol_format.xlsx
+++ b/protocol_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pijon\OneDrive\デスクトップ\U22\WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F943AD-7FC1-4A2E-9296-C77118BB4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71CB83-8F21-4D3B-BCD7-CD362BF3FB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocolフォーマット" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>チェックサム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -341,7 +345,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,20 +378,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,28 +399,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -698,27 +702,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="58.5">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="AK1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="AK1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
     </row>
     <row r="2" spans="1:68" ht="39.75">
       <c r="B2" s="1">
@@ -918,518 +922,584 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="3" t="s">
+      <c r="S3" s="12"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="3" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="3" t="s">
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="5"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="13"/>
+      <c r="AK3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="3" t="s">
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="3" t="s">
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="3" t="s">
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="3" t="s">
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="3" t="s">
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="13"/>
+      <c r="BM3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="5"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="13"/>
     </row>
     <row r="4" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="14"/>
-      <c r="AK4" s="12" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="17"/>
+      <c r="AK4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="14"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="17"/>
     </row>
     <row r="5" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="17"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
-      <c r="BG5" s="16"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="16"/>
-      <c r="BK5" s="16"/>
-      <c r="BL5" s="16"/>
-      <c r="BM5" s="16"/>
-      <c r="BN5" s="16"/>
-      <c r="BO5" s="16"/>
-      <c r="BP5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="20"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="20"/>
     </row>
     <row r="6" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AK6" s="3" t="s">
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AK6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="18" t="s">
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="18"/>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="18"/>
-      <c r="BK6" s="18"/>
-      <c r="BL6" s="18"/>
-      <c r="BM6" s="18"/>
-      <c r="BN6" s="18"/>
-      <c r="BO6" s="18"/>
-      <c r="BP6" s="18"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="14"/>
+      <c r="BP6" s="14"/>
     </row>
     <row r="7" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="9"/>
+      <c r="AK7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
-      <c r="BB7" s="13"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="13"/>
-      <c r="BE7" s="13"/>
-      <c r="BF7" s="13"/>
-      <c r="BG7" s="13"/>
-      <c r="BH7" s="13"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
-      <c r="BL7" s="13"/>
-      <c r="BM7" s="13"/>
-      <c r="BN7" s="13"/>
-      <c r="BO7" s="13"/>
-      <c r="BP7" s="14"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="17"/>
     </row>
     <row r="8" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-      <c r="BM8" s="16"/>
-      <c r="BN8" s="16"/>
-      <c r="BO8" s="16"/>
-      <c r="BP8" s="17"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="11"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
+      <c r="BK8" s="19"/>
+      <c r="BL8" s="19"/>
+      <c r="BM8" s="19"/>
+      <c r="BN8" s="19"/>
+      <c r="BO8" s="19"/>
+      <c r="BP8" s="20"/>
     </row>
     <row r="9" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AK9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="13"/>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13"/>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13"/>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13"/>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="14"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="17"/>
     </row>
     <row r="10" spans="1:68" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="17"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="20"/>
     </row>
     <row r="11" spans="1:68" ht="39.75" customHeight="1"/>
     <row r="15" spans="1:68" ht="58.5">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="AK15" s="6" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="AK15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
     </row>
     <row r="16" spans="1:68" ht="39.75">
       <c r="B16" s="1">
@@ -1629,677 +1699,680 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="3" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="3" t="s">
+      <c r="S17" s="12"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="3" t="s">
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="3" t="s">
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="5"/>
-      <c r="AK17" s="3" t="s">
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="13"/>
+      <c r="AK17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="3" t="s">
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="3" t="s">
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="3" t="s">
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="3" t="s">
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="5"/>
-      <c r="BM17" s="3" t="s">
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="13"/>
+      <c r="BM17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
-      <c r="BP17" s="5"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="13"/>
     </row>
     <row r="18" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="14"/>
-      <c r="AK18" s="12" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="17"/>
+      <c r="AK18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13"/>
-      <c r="BL18" s="13"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-      <c r="BO18" s="13"/>
-      <c r="BP18" s="14"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="17"/>
     </row>
     <row r="19" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="20"/>
       <c r="AK19" s="23"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="8"/>
-      <c r="BF19" s="8"/>
-      <c r="BG19" s="8"/>
-      <c r="BH19" s="8"/>
-      <c r="BI19" s="8"/>
-      <c r="BJ19" s="8"/>
-      <c r="BK19" s="8"/>
-      <c r="BL19" s="8"/>
-      <c r="BM19" s="8"/>
-      <c r="BN19" s="8"/>
-      <c r="BO19" s="8"/>
-      <c r="BP19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="24"/>
+      <c r="BJ19" s="24"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="24"/>
+      <c r="BO19" s="24"/>
+      <c r="BP19" s="25"/>
     </row>
     <row r="20" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="18" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AK20" s="3" t="s">
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AK20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="18" t="s">
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="13"/>
+      <c r="BE20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
-      <c r="BK20" s="18"/>
-      <c r="BL20" s="18"/>
-      <c r="BM20" s="18"/>
-      <c r="BN20" s="18"/>
-      <c r="BO20" s="18"/>
-      <c r="BP20" s="18"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="14"/>
     </row>
     <row r="21" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="3" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="3" t="s">
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="5"/>
-      <c r="AK21" s="12" t="s">
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="13"/>
+      <c r="AK21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
-      <c r="BM21" s="13"/>
-      <c r="BN21" s="13"/>
-      <c r="BO21" s="13"/>
-      <c r="BP21" s="14"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="16"/>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="16"/>
+      <c r="BI21" s="16"/>
+      <c r="BJ21" s="16"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="16"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="16"/>
+      <c r="BP21" s="17"/>
     </row>
     <row r="22" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="25"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="16"/>
-      <c r="AN22" s="16"/>
-      <c r="AO22" s="16"/>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="16"/>
-      <c r="AR22" s="16"/>
-      <c r="AS22" s="16"/>
-      <c r="AT22" s="16"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="16"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="16"/>
-      <c r="AZ22" s="16"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="16"/>
-      <c r="BC22" s="16"/>
-      <c r="BD22" s="16"/>
-      <c r="BE22" s="16"/>
-      <c r="BF22" s="16"/>
-      <c r="BG22" s="16"/>
-      <c r="BH22" s="16"/>
-      <c r="BI22" s="16"/>
-      <c r="BJ22" s="16"/>
-      <c r="BK22" s="16"/>
-      <c r="BL22" s="16"/>
-      <c r="BM22" s="16"/>
-      <c r="BN22" s="16"/>
-      <c r="BO22" s="16"/>
-      <c r="BP22" s="17"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="9"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
+      <c r="BF22" s="19"/>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="19"/>
+      <c r="BI22" s="19"/>
+      <c r="BJ22" s="19"/>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="19"/>
+      <c r="BM22" s="19"/>
+      <c r="BN22" s="19"/>
+      <c r="BO22" s="19"/>
+      <c r="BP22" s="20"/>
     </row>
     <row r="23" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="21"/>
-      <c r="AK23" s="12" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="11"/>
+      <c r="AK23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="13"/>
-      <c r="BK23" s="13"/>
-      <c r="BL23" s="13"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-      <c r="BO23" s="13"/>
-      <c r="BP23" s="14"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="16"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="16"/>
+      <c r="BJ23" s="16"/>
+      <c r="BK23" s="16"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="16"/>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="16"/>
+      <c r="BP23" s="17"/>
     </row>
     <row r="24" spans="1:68" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="16"/>
-      <c r="BF24" s="16"/>
-      <c r="BG24" s="16"/>
-      <c r="BH24" s="16"/>
-      <c r="BI24" s="16"/>
-      <c r="BJ24" s="16"/>
-      <c r="BK24" s="16"/>
-      <c r="BL24" s="16"/>
-      <c r="BM24" s="16"/>
-      <c r="BN24" s="16"/>
-      <c r="BO24" s="16"/>
-      <c r="BP24" s="17"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="19"/>
+      <c r="BO24" s="19"/>
+      <c r="BP24" s="20"/>
     </row>
     <row r="25" spans="1:68" ht="39.75">
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AK25" s="19" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AK25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="20"/>
-      <c r="BA25" s="20"/>
-      <c r="BB25" s="20"/>
-      <c r="BC25" s="20"/>
-      <c r="BD25" s="20"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
-      <c r="BG25" s="7"/>
-      <c r="BH25" s="7"/>
-      <c r="BI25" s="7"/>
-      <c r="BJ25" s="7"/>
-      <c r="BK25" s="7"/>
-      <c r="BL25" s="7"/>
-      <c r="BM25" s="7"/>
-      <c r="BN25" s="7"/>
-      <c r="BO25" s="7"/>
-      <c r="BP25" s="21"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="11"/>
     </row>
     <row r="26" spans="1:68" ht="39.75">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
-      <c r="AY26" s="7"/>
-      <c r="AZ26" s="7"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
-      <c r="BC26" s="7"/>
-      <c r="BD26" s="7"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="7"/>
-      <c r="BG26" s="7"/>
-      <c r="BH26" s="7"/>
-      <c r="BI26" s="7"/>
-      <c r="BJ26" s="7"/>
-      <c r="BK26" s="7"/>
-      <c r="BL26" s="7"/>
-      <c r="BM26" s="7"/>
-      <c r="BN26" s="7"/>
-      <c r="BO26" s="7"/>
-      <c r="BP26" s="21"/>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="11"/>
     </row>
     <row r="27" spans="1:68" ht="39.75">
       <c r="A27" s="1"/>
@@ -2330,13 +2403,40 @@
       <c r="AG27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B25:U25"/>
-    <mergeCell ref="V25:AG25"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B22:AG23"/>
-    <mergeCell ref="R21:Y21"/>
-    <mergeCell ref="Z21:AG21"/>
+  <mergeCells count="55">
+    <mergeCell ref="U17:Z17"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AK4:BP5"/>
+    <mergeCell ref="AK7:BP8"/>
+    <mergeCell ref="AK6:BD6"/>
+    <mergeCell ref="BE6:BP6"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO3:AZ3"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BM3:BP3"/>
+    <mergeCell ref="B7:AG8"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B4:AG5"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="V6:AG6"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AK21:BP22"/>
+    <mergeCell ref="AK25:BP26"/>
+    <mergeCell ref="AK23:BP24"/>
+    <mergeCell ref="AK18:BP19"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="BA17:BC17"/>
+    <mergeCell ref="BD17:BI17"/>
+    <mergeCell ref="BJ17:BL17"/>
+    <mergeCell ref="BM17:BP17"/>
     <mergeCell ref="B20:U20"/>
     <mergeCell ref="V20:AG20"/>
     <mergeCell ref="AK9:BP10"/>
@@ -2349,42 +2449,16 @@
     <mergeCell ref="B18:AG19"/>
     <mergeCell ref="AA17:AC17"/>
     <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AK21:BP22"/>
-    <mergeCell ref="AK25:BP26"/>
-    <mergeCell ref="AK23:BP24"/>
-    <mergeCell ref="AK18:BP19"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="BA17:BC17"/>
-    <mergeCell ref="BD17:BI17"/>
-    <mergeCell ref="BJ17:BL17"/>
-    <mergeCell ref="BM17:BP17"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B4:AG5"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="V6:AG6"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="B10:Q10"/>
     <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="R10:AB10"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:Z17"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AK4:BP5"/>
-    <mergeCell ref="AK7:BP8"/>
-    <mergeCell ref="AK6:BD6"/>
-    <mergeCell ref="BE6:BP6"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="AO3:AZ3"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BM3:BP3"/>
+    <mergeCell ref="B25:U25"/>
+    <mergeCell ref="V25:AG25"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:AG23"/>
+    <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="Z21:AG21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
